--- a/data/Course Booklet 2019/DS_UG_Curriculum.xlsx
+++ b/data/Course Booklet 2019/DS_UG_Curriculum.xlsx
@@ -1,457 +1,490 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="curriculum" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="baskets" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="minor" sheetId="3" r:id="rId5"/>
+    <sheet name="curriculum" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="baskets" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="136">
-  <si>
-    <t>Semester</t>
-  </si>
-  <si>
-    <t>Course Code</t>
-  </si>
-  <si>
-    <t>Course Name (optional)</t>
-  </si>
-  <si>
-    <t>Course Credits (Optional)</t>
-  </si>
-  <si>
-    <t>Segment (optional)</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Global Remarks</t>
-  </si>
-  <si>
-    <t>DS1013</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
+  <si>
+    <t xml:space="preserve">Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Name (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Credits (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segment (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1013</t>
   </si>
   <si>
     <t xml:space="preserve">Elements of Design </t>
   </si>
   <si>
-    <t>DS1020</t>
+    <t xml:space="preserve">DS1020</t>
   </si>
   <si>
     <t xml:space="preserve">Design, Culture and Society </t>
   </si>
   <si>
-    <t>DS1033</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>DS1043</t>
+    <t xml:space="preserve">DS1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1043</t>
   </si>
   <si>
     <t xml:space="preserve">Environmental Exposure </t>
   </si>
   <si>
-    <t>DS1053</t>
+    <t xml:space="preserve">DS1053</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to design (Lecture series) </t>
   </si>
   <si>
-    <t>DS1063</t>
+    <t xml:space="preserve">DS1063</t>
   </si>
   <si>
     <t xml:space="preserve">Principles of Design </t>
   </si>
   <si>
-    <t>DS1193</t>
-  </si>
-  <si>
-    <t>Design Drawing 1</t>
-  </si>
-  <si>
-    <t>DS1070</t>
+    <t xml:space="preserve">DS1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Drawing 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1070</t>
   </si>
   <si>
     <t xml:space="preserve">Evolution of Design </t>
   </si>
   <si>
-    <t>DS1083</t>
+    <t xml:space="preserve">DS1083</t>
   </si>
   <si>
     <t xml:space="preserve">Digital fabrication 1 </t>
   </si>
   <si>
-    <t>DS1093</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>DS1101</t>
+    <t xml:space="preserve">DS1093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1101</t>
   </si>
   <si>
     <t xml:space="preserve">Workshop and material explorations </t>
   </si>
   <si>
-    <t>DS1113</t>
+    <t xml:space="preserve">DS1113</t>
   </si>
   <si>
     <t xml:space="preserve">Product Design </t>
   </si>
   <si>
-    <t>DS1123</t>
+    <t xml:space="preserve">DS1123</t>
   </si>
   <si>
     <t xml:space="preserve">Animation </t>
   </si>
   <si>
-    <t>DS1130</t>
+    <t xml:space="preserve">DS1130</t>
   </si>
   <si>
     <t xml:space="preserve">Film Appreciation </t>
   </si>
   <si>
-    <t>DS1144</t>
-  </si>
-  <si>
-    <t>Digital Fabrication 2</t>
-  </si>
-  <si>
-    <t>DS1153</t>
+    <t xml:space="preserve">DS1144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Fabrication 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1153</t>
   </si>
   <si>
     <t xml:space="preserve">Interaction Design </t>
   </si>
   <si>
-    <t>DS1163</t>
+    <t xml:space="preserve">DS1163</t>
   </si>
   <si>
     <t xml:space="preserve">Graphic Design </t>
   </si>
   <si>
-    <t>DS1173</t>
-  </si>
-  <si>
-    <t>Photography</t>
-  </si>
-  <si>
-    <t>DS1183</t>
+    <t xml:space="preserve">DS1173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1183</t>
   </si>
   <si>
     <t xml:space="preserve">Design Process </t>
   </si>
   <si>
-    <t>DS2013</t>
+    <t xml:space="preserve">DS2013</t>
   </si>
   <si>
     <t xml:space="preserve">Material Explorations </t>
   </si>
   <si>
-    <t>DS2023</t>
+    <t xml:space="preserve">DS2023</t>
   </si>
   <si>
     <t xml:space="preserve">Applied Ergonomics </t>
   </si>
   <si>
-    <t>DS2033</t>
+    <t xml:space="preserve">DS2033</t>
   </si>
   <si>
     <t xml:space="preserve">Design Computing </t>
   </si>
   <si>
-    <t>DS2043</t>
+    <t xml:space="preserve">DS2043</t>
   </si>
   <si>
     <t xml:space="preserve">Sound Design </t>
   </si>
   <si>
-    <t>DSxxxx</t>
-  </si>
-  <si>
-    <t>Electives</t>
-  </si>
-  <si>
-    <t>DS2050</t>
-  </si>
-  <si>
-    <t>Semiotics</t>
-  </si>
-  <si>
-    <t>DS2213</t>
+    <t xml:space="preserve">DSxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semiotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2213</t>
   </si>
   <si>
     <t xml:space="preserve">Design for Sustainability </t>
   </si>
   <si>
-    <t>DS2223</t>
-  </si>
-  <si>
-    <t>Mental Model and Affordance</t>
-  </si>
-  <si>
-    <t>DS2232</t>
-  </si>
-  <si>
-    <t>Illustration</t>
-  </si>
-  <si>
-    <t>DS2243</t>
+    <t xml:space="preserve">DS2223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Model and Affordance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2243</t>
   </si>
   <si>
     <t xml:space="preserve">Data and Information Visualization </t>
   </si>
   <si>
-    <t>DS2250</t>
+    <t xml:space="preserve">DS2250</t>
   </si>
   <si>
     <t xml:space="preserve">Indian Aesthetics </t>
   </si>
   <si>
-    <t>DS2263</t>
+    <t xml:space="preserve">DS2263</t>
   </si>
   <si>
     <t xml:space="preserve">Universal Design </t>
   </si>
   <si>
-    <t>DS3093</t>
+    <t xml:space="preserve">DS3093</t>
   </si>
   <si>
     <t xml:space="preserve">System Design for Sustainability </t>
   </si>
   <si>
-    <t>DS3013</t>
+    <t xml:space="preserve">DS3013</t>
   </si>
   <si>
     <t xml:space="preserve">Virtual Environments in Design </t>
   </si>
   <si>
-    <t>DS3113</t>
-  </si>
-  <si>
-    <t>Digital Storytelling</t>
-  </si>
-  <si>
-    <t>DS3120</t>
+    <t xml:space="preserve">DS3113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Storytelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3120</t>
   </si>
   <si>
     <t xml:space="preserve">Design and Philosophy </t>
   </si>
   <si>
-    <t>DS3133</t>
+    <t xml:space="preserve">DS3133</t>
   </si>
   <si>
     <t xml:space="preserve">Digital Heritage </t>
   </si>
   <si>
-    <t>DS3143</t>
+    <t xml:space="preserve">DS3143</t>
   </si>
   <si>
     <t xml:space="preserve">Design for education </t>
   </si>
   <si>
-    <t>DS3153</t>
+    <t xml:space="preserve">DS3153</t>
   </si>
   <si>
     <t xml:space="preserve">Display and Control </t>
   </si>
   <si>
-    <t>DS3163</t>
+    <t xml:space="preserve">DS3163</t>
   </si>
   <si>
     <t xml:space="preserve">Documentary photography </t>
   </si>
   <si>
-    <t>DS3173</t>
+    <t xml:space="preserve">DS3173</t>
   </si>
   <si>
     <t xml:space="preserve">Moving images </t>
   </si>
   <si>
-    <t>DS4013</t>
-  </si>
-  <si>
-    <t>Automobile Design Explorations</t>
-  </si>
-  <si>
-    <t>DS4023</t>
-  </si>
-  <si>
-    <t>Calligraphy</t>
-  </si>
-  <si>
-    <t>DS4016</t>
-  </si>
-  <si>
-    <t>Internship</t>
-  </si>
-  <si>
-    <t>DS4020</t>
+    <t xml:space="preserve">DS4013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automobile Design Explorations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calligraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4020</t>
   </si>
   <si>
     <t xml:space="preserve">Design Management </t>
   </si>
   <si>
-    <t>DS4030</t>
+    <t xml:space="preserve">DS4030</t>
   </si>
   <si>
     <t xml:space="preserve">Intellectual Property rights </t>
   </si>
   <si>
-    <t>DS4040</t>
+    <t xml:space="preserve">DS4040</t>
   </si>
   <si>
     <t xml:space="preserve">Professional practice </t>
   </si>
   <si>
-    <t>DS4050</t>
-  </si>
-  <si>
-    <t>Entrepreneurship and Business Planning</t>
-  </si>
-  <si>
-    <t>DS4060</t>
-  </si>
-  <si>
-    <t>Design Research</t>
-  </si>
-  <si>
-    <t>DS4073</t>
-  </si>
-  <si>
-    <t>Design Innovation</t>
-  </si>
-  <si>
-    <t>DS4080</t>
-  </si>
-  <si>
-    <t>Portfolio skills</t>
-  </si>
-  <si>
-    <t>DS4115</t>
-  </si>
-  <si>
-    <t>Final semester thesis project</t>
-  </si>
-  <si>
-    <t>Basket Name</t>
-  </si>
-  <si>
-    <t>3rd Semester Electives</t>
-  </si>
-  <si>
-    <t>DS2063</t>
-  </si>
-  <si>
-    <t>DS2073</t>
-  </si>
-  <si>
-    <t>DS2083</t>
-  </si>
-  <si>
-    <t>DS2093</t>
-  </si>
-  <si>
-    <t>DS2103</t>
-  </si>
-  <si>
-    <t>DS2113</t>
-  </si>
-  <si>
-    <t>DS2123</t>
-  </si>
-  <si>
-    <t>DS2133</t>
+    <t xml:space="preserve">DS4050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepreneurship and Business Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS4115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final semester thesis project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Semester Electives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2272</t>
   </si>
   <si>
     <t xml:space="preserve">4th Semester Electives </t>
   </si>
   <si>
-    <t>DS2272</t>
-  </si>
-  <si>
-    <t>DS2283</t>
-  </si>
-  <si>
-    <t>DS2293</t>
-  </si>
-  <si>
-    <t>DS2313</t>
-  </si>
-  <si>
-    <t>DS2333</t>
+    <t xml:space="preserve">DS2283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3183</t>
   </si>
   <si>
     <t xml:space="preserve">6th Semester Electives </t>
   </si>
   <si>
-    <t>DS3183</t>
-  </si>
-  <si>
-    <t>DS3193</t>
-  </si>
-  <si>
-    <t>DS3203</t>
-  </si>
-  <si>
-    <t>DS3213</t>
-  </si>
-  <si>
-    <t>DS3223</t>
-  </si>
-  <si>
-    <t>DS3233</t>
-  </si>
-  <si>
-    <t>DS3243</t>
-  </si>
-  <si>
-    <t>DS3253</t>
-  </si>
-  <si>
-    <t>DS3263</t>
-  </si>
-  <si>
-    <t>DS3273</t>
+    <t xml:space="preserve">DS3193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,130 +492,160 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.43"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="39.57"/>
-    <col customWidth="1" min="4" max="7" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,9 +687,9 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
-        <v>1.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -634,8 +697,8 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
-        <v>1.0</v>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -660,9 +723,9 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
-        <v>1.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -670,8 +733,8 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
-        <v>1.0</v>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -696,9 +759,9 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
-        <v>1.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -706,8 +769,8 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.0</v>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -732,9 +795,9 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
-        <v>1.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -742,8 +805,8 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
-        <v>1.0</v>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -768,9 +831,9 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>1.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -778,8 +841,8 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4">
-        <v>2.0</v>
+      <c r="D6" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -804,9 +867,9 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
-        <v>1.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -814,8 +877,8 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
-        <v>1.0</v>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -840,9 +903,9 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
-        <v>1.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -850,8 +913,8 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
-        <v>1.0</v>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -876,9 +939,9 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
-        <v>1.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -886,8 +949,8 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4">
-        <v>1.0</v>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -912,9 +975,9 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
-        <v>1.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -922,8 +985,8 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4">
-        <v>1.0</v>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -948,9 +1011,9 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>1.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -958,8 +1021,8 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
-        <v>1.0</v>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -984,9 +1047,9 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
-        <v>1.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
@@ -994,8 +1057,8 @@
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4">
-        <v>3.0</v>
+      <c r="D12" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1020,9 +1083,9 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
-        <v>2.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -1030,8 +1093,8 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
-        <v>2.0</v>
+      <c r="D13" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1056,9 +1119,9 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
-        <v>2.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>31</v>
@@ -1066,8 +1129,8 @@
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4">
-        <v>2.0</v>
+      <c r="D14" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1092,9 +1155,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>2.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
@@ -1102,8 +1165,8 @@
       <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4">
-        <v>2.0</v>
+      <c r="D15" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1128,9 +1191,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3">
-        <v>2.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -1138,8 +1201,8 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4">
-        <v>2.0</v>
+      <c r="D16" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1164,9 +1227,9 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
-        <v>2.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>37</v>
@@ -1174,8 +1237,8 @@
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4">
-        <v>2.0</v>
+      <c r="D17" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1200,9 +1263,9 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3">
-        <v>2.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -1210,8 +1273,8 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4">
-        <v>2.0</v>
+      <c r="D18" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1236,9 +1299,9 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3">
-        <v>2.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -1246,8 +1309,8 @@
       <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4">
-        <v>2.0</v>
+      <c r="D19" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1272,9 +1335,9 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
-        <v>2.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -1282,8 +1345,8 @@
       <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4">
-        <v>1.0</v>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1308,9 +1371,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>3.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1318,8 +1381,8 @@
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4">
-        <v>2.0</v>
+      <c r="D21" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1344,9 +1407,9 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>3.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -1354,8 +1417,8 @@
       <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="4">
-        <v>1.0</v>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1380,9 +1443,9 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>3.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -1390,8 +1453,8 @@
       <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4">
-        <v>1.0</v>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1416,9 +1479,9 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
-        <v>3.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>51</v>
@@ -1426,8 +1489,8 @@
       <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="4">
-        <v>1.0</v>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1452,9 +1515,9 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
-        <v>3.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>53</v>
@@ -1486,9 +1549,9 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>3.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>55</v>
@@ -1496,8 +1559,8 @@
       <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="4">
-        <v>1.0</v>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1522,9 +1585,9 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>4.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>57</v>
@@ -1532,8 +1595,8 @@
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4">
-        <v>1.0</v>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1558,9 +1621,9 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>4.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>59</v>
@@ -1568,8 +1631,8 @@
       <c r="C28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="4">
-        <v>1.0</v>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1594,9 +1657,9 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
-        <v>4.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>61</v>
@@ -1604,8 +1667,8 @@
       <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="4">
-        <v>2.0</v>
+      <c r="D29" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1630,9 +1693,9 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
-        <v>4.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>63</v>
@@ -1640,8 +1703,8 @@
       <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4">
-        <v>1.0</v>
+      <c r="D30" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1666,9 +1729,9 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>4.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>65</v>
@@ -1676,8 +1739,8 @@
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4">
-        <v>1.0</v>
+      <c r="D31" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1702,9 +1765,9 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>4.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>67</v>
@@ -1712,8 +1775,8 @@
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="4">
-        <v>1.0</v>
+      <c r="D32" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1738,9 +1801,9 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>4.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>53</v>
@@ -1772,9 +1835,9 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>5.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>69</v>
@@ -1782,8 +1845,8 @@
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="4">
-        <v>2.0</v>
+      <c r="D34" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1808,9 +1871,9 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>5.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>71</v>
@@ -1818,8 +1881,8 @@
       <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="4">
-        <v>2.0</v>
+      <c r="D35" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1844,9 +1907,9 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>5.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>73</v>
@@ -1854,8 +1917,8 @@
       <c r="C36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="4">
-        <v>2.0</v>
+      <c r="D36" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1880,9 +1943,9 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>5.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>75</v>
@@ -1890,8 +1953,8 @@
       <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="4">
-        <v>2.0</v>
+      <c r="D37" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1916,9 +1979,9 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>5.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>77</v>
@@ -1926,8 +1989,8 @@
       <c r="C38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="4">
-        <v>2.0</v>
+      <c r="D38" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1952,9 +2015,9 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>5.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>79</v>
@@ -1962,8 +2025,8 @@
       <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="4">
-        <v>2.0</v>
+      <c r="D39" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1988,9 +2051,9 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <v>5.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>81</v>
@@ -1998,8 +2061,8 @@
       <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="4">
-        <v>2.0</v>
+      <c r="D40" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2024,9 +2087,9 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
-        <v>5.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>83</v>
@@ -2034,8 +2097,8 @@
       <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="4">
-        <v>2.0</v>
+      <c r="D41" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2060,9 +2123,9 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
-        <v>5.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>85</v>
@@ -2070,8 +2133,8 @@
       <c r="C42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="4">
-        <v>2.0</v>
+      <c r="D42" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2096,9 +2159,9 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
-        <v>6.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>53</v>
@@ -2130,9 +2193,9 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
-        <v>7.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>87</v>
@@ -2140,8 +2203,8 @@
       <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="9">
-        <v>2.0</v>
+      <c r="D44" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2166,9 +2229,9 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
-        <v>7.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>89</v>
@@ -2176,8 +2239,8 @@
       <c r="C45" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="12">
-        <v>1.0</v>
+      <c r="D45" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2202,9 +2265,9 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
-        <v>7.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>91</v>
@@ -2212,8 +2275,8 @@
       <c r="C46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="4">
-        <v>1.0</v>
+      <c r="D46" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2238,9 +2301,9 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <v>7.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>93</v>
@@ -2248,8 +2311,8 @@
       <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="4">
-        <v>2.0</v>
+      <c r="D47" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2274,9 +2337,9 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>7.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>95</v>
@@ -2284,8 +2347,8 @@
       <c r="C48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="4">
-        <v>1.0</v>
+      <c r="D48" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2310,9 +2373,9 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
-        <v>7.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>97</v>
@@ -2320,8 +2383,8 @@
       <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="4">
-        <v>1.0</v>
+      <c r="D49" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2346,9 +2409,9 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <v>7.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>99</v>
@@ -2356,8 +2419,8 @@
       <c r="C50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="4">
-        <v>1.0</v>
+      <c r="D50" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2382,9 +2445,9 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <v>7.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>101</v>
@@ -2392,8 +2455,8 @@
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="4">
-        <v>1.0</v>
+      <c r="D51" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2418,9 +2481,9 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
-        <v>7.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>103</v>
@@ -2428,8 +2491,8 @@
       <c r="C52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="4">
-        <v>1.0</v>
+      <c r="D52" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2454,9 +2517,9 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
-        <v>7.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>105</v>
@@ -2464,8 +2527,8 @@
       <c r="C53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="4">
-        <v>1.0</v>
+      <c r="D53" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2490,9 +2553,9 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3">
-        <v>8.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>8</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>107</v>
@@ -2500,8 +2563,8 @@
       <c r="C54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="4">
-        <v>15.0</v>
+      <c r="D54" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2526,7 +2589,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2554,7 +2617,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2582,7 +2645,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2610,7 +2673,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2638,7 +2701,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2666,7 +2729,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2694,7 +2757,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2722,7 +2785,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2750,7 +2813,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2778,7 +2841,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2806,7 +2869,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2834,7 +2897,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2862,7 +2925,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2890,7 +2953,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2918,7 +2981,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2946,7 +3009,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2974,7 +3037,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3002,7 +3065,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3030,7 +3093,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3058,7 +3121,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3086,7 +3149,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3114,7 +3177,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3142,7 +3205,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3170,7 +3233,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3198,7 +3261,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3226,7 +3289,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3254,7 +3317,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3282,7 +3345,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3310,7 +3373,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3338,7 +3401,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3366,7 +3429,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3394,7 +3457,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3422,7 +3485,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3450,7 +3513,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3478,7 +3541,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3506,7 +3569,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3534,7 +3597,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3562,7 +3625,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3590,7 +3653,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3618,7 +3681,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3646,7 +3709,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3674,7 +3737,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3702,7 +3765,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3730,7 +3793,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3758,7 +3821,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3786,7 +3849,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3814,7 +3877,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3842,7 +3905,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3870,7 +3933,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3898,7 +3961,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3926,7 +3989,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3954,7 +4017,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3982,7 +4045,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4010,7 +4073,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4038,7 +4101,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4066,7 +4129,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4094,7 +4157,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4122,7 +4185,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4150,7 +4213,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4178,7 +4241,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4206,7 +4269,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4234,7 +4297,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4262,7 +4325,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4290,7 +4353,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4318,7 +4381,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4346,7 +4409,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4374,7 +4437,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4402,7 +4465,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4430,7 +4493,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4458,7 +4521,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4486,7 +4549,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4514,7 +4577,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4542,7 +4605,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4570,7 +4633,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4598,7 +4661,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4626,7 +4689,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4654,7 +4717,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4682,7 +4745,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4710,7 +4773,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4738,7 +4801,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4766,7 +4829,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4794,7 +4857,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4822,7 +4885,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4850,7 +4913,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4878,7 +4941,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4906,7 +4969,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4934,7 +4997,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4962,7 +5025,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4990,7 +5053,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5018,7 +5081,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5046,7 +5109,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5074,7 +5137,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5102,7 +5165,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5130,7 +5193,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5158,7 +5221,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5186,7 +5249,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5214,7 +5277,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5242,7 +5305,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5270,7 +5333,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5298,7 +5361,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5326,7 +5389,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5354,7 +5417,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5382,7 +5445,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5410,7 +5473,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5438,7 +5501,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5466,7 +5529,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5494,7 +5557,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5522,7 +5585,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5550,7 +5613,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5578,7 +5641,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5606,7 +5669,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5634,7 +5697,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5662,7 +5725,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5690,7 +5753,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5718,7 +5781,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5746,7 +5809,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5774,7 +5837,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5802,7 +5865,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5830,7 +5893,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5858,7 +5921,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5886,7 +5949,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5914,7 +5977,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5942,7 +6005,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5970,7 +6033,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5998,7 +6061,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6026,7 +6089,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6054,7 +6117,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6082,7 +6145,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6110,7 +6173,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6138,7 +6201,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6166,7 +6229,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6194,7 +6257,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6222,7 +6285,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6250,7 +6313,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6278,7 +6341,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6306,7 +6369,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6334,7 +6397,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6362,7 +6425,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6390,7 +6453,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6418,7 +6481,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6446,7 +6509,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6474,7 +6537,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6502,7 +6565,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6530,7 +6593,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6558,7 +6621,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6586,7 +6649,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6614,7 +6677,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6642,7 +6705,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6670,7 +6733,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6698,7 +6761,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6726,7 +6789,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6754,7 +6817,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6782,7 +6845,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6810,7 +6873,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6838,7 +6901,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6866,7 +6929,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6894,7 +6957,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6922,7 +6985,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6950,7 +7013,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6978,7 +7041,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7006,7 +7069,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7034,7 +7097,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7062,7 +7125,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7090,7 +7153,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7118,7 +7181,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7146,7 +7209,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7174,7 +7237,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7202,7 +7265,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7230,7 +7293,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7258,7 +7321,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7286,7 +7349,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7314,7 +7377,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7342,7 +7405,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7370,7 +7433,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7398,7 +7461,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7426,7 +7489,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7454,7 +7517,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7482,7 +7545,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7510,7 +7573,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7538,7 +7601,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7566,7 +7629,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7594,7 +7657,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7622,7 +7685,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7650,7 +7713,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7678,7 +7741,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7706,7 +7769,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7734,7 +7797,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7762,7 +7825,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7790,7 +7853,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7818,7 +7881,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7846,7 +7909,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7874,7 +7937,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7902,7 +7965,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7930,7 +7993,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7958,7 +8021,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7986,7 +8049,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8014,7 +8077,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8042,7 +8105,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8070,7 +8133,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8098,7 +8161,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8126,3059 +8189,2058 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>